--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl20-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl20-Ackr4.xlsx
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.4233336666666667</v>
+        <v>0.180428</v>
       </c>
       <c r="N2">
-        <v>1.270001</v>
+        <v>0.541284</v>
       </c>
       <c r="O2">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="P2">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="Q2">
-        <v>0.3860707084368889</v>
+        <v>0.1645462462986667</v>
       </c>
       <c r="R2">
-        <v>3.474636375932</v>
+        <v>1.480916216688</v>
       </c>
       <c r="S2">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="T2">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>0.051827</v>
       </c>
       <c r="O3">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="P3">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="Q3">
         <v>0.01575501641822222</v>
@@ -632,10 +632,10 @@
         <v>0.141795147764</v>
       </c>
       <c r="S3">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="T3">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.04443033333333334</v>
+        <v>0.07059633333333333</v>
       </c>
       <c r="N4">
-        <v>0.133291</v>
+        <v>0.211789</v>
       </c>
       <c r="O4">
-        <v>0.09160144290604412</v>
+        <v>0.2631246117530128</v>
       </c>
       <c r="P4">
-        <v>0.09160144290604412</v>
+        <v>0.2631246117530128</v>
       </c>
       <c r="Q4">
-        <v>0.04051945691244445</v>
+        <v>0.06438225581644444</v>
       </c>
       <c r="R4">
-        <v>0.3646751122120001</v>
+        <v>0.579440302348</v>
       </c>
       <c r="S4">
-        <v>0.09160144290604412</v>
+        <v>0.2631246117530128</v>
       </c>
       <c r="T4">
-        <v>0.09160144290604412</v>
+        <v>0.2631246117530128</v>
       </c>
     </row>
   </sheetData>
